--- a/1. Gerenciamento de Projeto/GP - Planejamento e Controle do Projeto v1.0.xlsx
+++ b/1. Gerenciamento de Projeto/GP - Planejamento e Controle do Projeto v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13095" tabRatio="797"/>
+    <workbookView windowWidth="28785" windowHeight="13095" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Riscos" sheetId="12" r:id="rId5"/>
     <sheet name="Mudanças" sheetId="17" r:id="rId6"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId7"/>
-    <sheet name="#Estimativa-APF#" sheetId="14" r:id="rId8"/>
-    <sheet name="#Planejamento-APF#" sheetId="16" r:id="rId9"/>
+    <sheet name="#Estimativa-APF#" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="#Planejamento-APF#" sheetId="16" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Mudanças!$A$1:$D$13</definedName>
-    <definedName name="Restante">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</definedName>
+    <definedName name="Restante">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</definedName>
     <definedName name="Restante2" localSheetId="8">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
     <definedName name="Restante2">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
   </definedNames>
@@ -33,16 +33,211 @@
     <author>Murakami Edson</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">O identificador da trefa auxilia na criação e uso dos "Post-it" dos quadros Kanban ou Scrum.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Fase / Caso de Uso / História do Usuário
+Esta coluna comporta tarefas das fases do processo, casos de uso e histórias de usuário. O Scrum Master deve complementá-la com as tarefas específicas do projeto.
+Quebrar atividades em tarefas menores facilita a distribuição do trabalho aos membros do time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Preencher as células em amarelo.</t>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Tarefas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+. Uma tarefa corresponde a uma Tarefa (Task) do processo.
+. Pode ser também o detalhamento dos fluxos de um Caso de Uso (CRUD)
+. Pode ainda ser uma História de Usuário
+Quebrar os casos de uso em tarefas menores facilita a distribuição de trabalho aos membros do time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Resultado do Planning Poker, convertido para horas.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">O identificador da trefa auxilia na criação e uso dos "Post-it" dos quadros Kanban ou Scrum.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Tarefas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+. Uma tarefa corresponde a uma Tarefa (Task) do processo.
+. Pode ser também o detalhamento dos fluxos de um Caso de Uso (CRUD)
+. Pode ainda ser uma História de Usuário
+Quebrar os casos de uso em tarefas menores facilita a distribuição de trabalho aos membros do time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Pontue de 0 a 10.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+V = Valor: Quanto de valor a história de usuário representa para o usuário final?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Pontue de 0 a 10.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">R = Risco: Qual é o risco desta história não ser entregue? </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Somente 10 quando existe Dependência, do contrário 0.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>D = Dependência: A história que será pontuada, irá gerar insumos para “outras” histórias no Backlog?
+Ex: Temos duas histórias no Backlog, A e B. A história A não consegue ser entregue pois necessita que a história B seja entregue antes. Diante disso a história B receberá a pontuação “10” no método VRDC pois ela precisa ser completada o mais rápido possível para que a história A também seja entregue.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Pontue de 0 a 10.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+C = Complexidade Técnica: Qual a complexidade técnica (tecnologia) da história?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Tem prioridade as de maior peso.
+</t>
         </r>
       </text>
     </comment>
@@ -54,6 +249,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murakami Edson</author>
+    <author>tc={E9F19792-AE09-49E6-82FD-12140E2265AF}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0">
@@ -61,206 +257,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">O identificador da trefa auxilia na criação e uso dos "Post-it" dos quadros Kanban ou Scrum.
-</t>
+            <rFont val="Segoe UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Considerando a estimativa e capacidade da equipe sugere-se o seguinte plajenamento.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Fase / Caso de Uso / História do Usuário
-Esta coluna comporta tarefas das fases do processo, casos de uso e histórias de usuário. O Scrum Master deve complementá-la com as tarefas específicas do projeto.
-Quebrar atividades em tarefas menores facilita a distribuição do trabalho aos membros do time.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Tarefas
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-. Uma tarefa corresponde a uma Tarefa (Task) do processo.
-. Pode ser também o detalhamento dos fluxos de um Caso de Uso (CRUD)
-. Pode ainda ser uma História de Usuário
-Quebrar os casos de uso em tarefas menores facilita a distribuição de trabalho aos membros do time.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Resultado do Planning Poker, convertido para horas.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">O identificador da trefa auxilia na criação e uso dos "Post-it" dos quadros Kanban ou Scrum.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Tarefas
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-. Uma tarefa corresponde a uma Tarefa (Task) do processo.
-. Pode ser também o detalhamento dos fluxos de um Caso de Uso (CRUD)
-. Pode ainda ser uma História de Usuário
-Quebrar os casos de uso em tarefas menores facilita a distribuição de trabalho aos membros do time.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Pontue de 0 a 10.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-V = Valor: Quanto de valor a história de usuário representa para o usuário final?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Pontue de 0 a 10.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">R = Risco: Qual é o risco desta história não ser entregue? </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Somente 10 quando existe Dependência, do contrário 0.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>D = Dependência: A história que será pontuada, irá gerar insumos para “outras” histórias no Backlog?
-Ex: Temos duas histórias no Backlog, A e B. A história A não consegue ser entregue pois necessita que a história B seja entregue antes. Diante disso a história B receberá a pontuação “10” no método VRDC pois ela precisa ser completada o mais rápido possível para que a história A também seja entregue.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Pontue de 0 a 10.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-C = Complexidade Técnica: Qual a complexidade técnica (tecnologia) da história?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Tem prioridade as de maior peso.
-</t>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação vinda da estimativa</t>
         </r>
       </text>
     </comment>
@@ -272,33 +287,466 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murakami Edson</author>
-    <author>tc={E9F19792-AE09-49E6-82FD-12140E2265AF}</author>
+    <author>luis.monteiro</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Considerando a estimativa e capacidade da equipe sugere-se o seguinte plajenamento.</t>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Descrição do Risco</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Sentença que descreve o risco, definindo o evento que, ao ocorrer, causa impacto no projeto.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="C48" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Informação vinda da estimativa</t>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Data:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Data da identificação do risco ou da alteração de seus atributos durante o monitoramento e controle de riscos.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Probabilidade de Ocorrência: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Probabilidade de o risco ocorrer expressa qualitativamente:
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Alta: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos evidentes ao projeto, cuja ocorrência é esperada à curto prazo ou que possuam probabilidade de ocorrência maior ou igual à 50% em algum momento durante o projeto.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Média: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos identificados, para os quais é esperado a ocorrência em algum momento do projeto ou cuja probabilidade é igual ou maior que 15% e menor que 50% ou desconhecida.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Baixa: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos identificados, porém cuja ocorrência não é esperada durante o projeto ou que possuam probabilidade menor que 15%.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Impacto do Risco: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Os desvios de tempo ou custo do que foi planejado se o risco ocorrer, expresso qualitativamente.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Alto: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja igual ou maior que 10% do tempo total do projeto respectivamente.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Médio: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja igual ou maior que 5% e menor que 10% do tempo total do projeto respectivamente.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Baixo: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja menor que 5% do tempo total do projeto respectivamente.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Perda Esperada do RIsco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+A Perda Esperada do Risco identifica a prioridade de tratamento dos riscos.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Perda Esperada Alta: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos de alta prioridade, para os quais devem ser elaborados planos de mitigação ao risco.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Perda Esperada Média: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos de prioridade moderada, para os quais devem ser elaborados, pelo menos, planos de contingência ao risco.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Perda Esperada Baixa: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Riscos de baixa prioridade, para os quais não são necessários planos de resposta ao risco.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Situação do Risco:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 
+Situação atual do risco no projeto:
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Ativo: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco identificado e monitorado, porém sem nenhuma resposta sendo implementada.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Em mitigação: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco para o qual está sendo executada uma estratégia de mitigação.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Ocorrido: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Risco ocorrido no projeto para o qual está sendo aplicada a estratégia de resposta adequada, normalmente a execução de um plano de contingência.
+    </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">- Inativo: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Risco eliminado, naturalmente no decorrer do tempo, por uma ação de resposta ao risco ou por este já ter ocorrido e a ser impossível nova ocorrência.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Gatilhos do Risco: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Métricas e limites relacionados a um risco que indicam a ocorrência ou a iminência de ocorrência do risco, 
+por exemplo: taxa de defeitos nos resultados de testes e revisões técnicas, indicador de retrabalho do projeto, 
+indicador de entregas de produtos, indicador de prazo e custo de projeto, etc.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Plano de Mitigação do Risco: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Planejamento de ações que busquem reduzir a probabilidade e/ou o impacto da ocorrência do risco
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K49" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Plano de Contingência do Risco: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Estratégia de reação aos efeitos do risco, caso este venha a ocorrer.
+</t>
         </r>
       </text>
     </comment>
@@ -309,466 +757,88 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>lucas</author>
     <author>Murakami Edson</author>
-    <author>luis.monteiro</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Descrição do Risco</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentença que descreve o risco, definindo o evento que, ao ocorrer, causa impacto no projeto.</t>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">Essas tarefas devem vir do backlog do produto, conforme a priorização.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="1">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Data:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Data da identificação do risco ou da alteração de seus atributos durante o monitoramento e controle de riscos.
-</t>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Horas Estimadas:
+A estimativa pode vir do Backlog do Produto ou ser refeita durante o planejamento do Sprint. 
+Porém, a estimativa inicial no Backlog do Produto não pode ser alterada. Caso contrário, não será possível calcular o percentual de erro da estimativa que deveria ser utilizado nos projetos futuros.
+Criar um histórico do percentual de erro da estimativa é muito importante para a maturidade do time e para aumentar a precisão das estimativas.
+(*) Desse modo, o lançamento das horas efetivamente gastas são muito importante para poder comparar estimado com realizado.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="1">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Probabilidade de Ocorrência: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Probabilidade de o risco ocorrer expressa qualitativamente:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Alta: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos evidentes ao projeto, cuja ocorrência é esperada à curto prazo ou que possuam probabilidade de ocorrência maior ou igual à 50% em algum momento durante o projeto.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Média: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos identificados, para os quais é esperado a ocorrência em algum momento do projeto ou cuja probabilidade é igual ou maior que 15% e menor que 50% ou desconhecida.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Baixa: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos identificados, porém cuja ocorrência não é esperada durante o projeto ou que possuam probabilidade menor que 15%.
-</t>
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Data de início da sprint</t>
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="1">
+    <comment ref="B12" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Impacto do Risco: 
+            <sz val="9"/>
+            <rFont val="Segoe UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">O esforço total do Sprint não pode ultrapassar a capacidade do time.
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Os desvios de tempo ou custo do que foi planejado se o risco ocorrer, expresso qualitativamente.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Alto: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja igual ou maior que 10% do tempo total do projeto respectivamente.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Médio: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja igual ou maior que 5% e menor que 10% do tempo total do projeto respectivamente.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Baixo: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco cujo impacto no tempo ou custo seja menor que 5% do tempo total do projeto respectivamente.
+            <sz val="9"/>
+            <rFont val="Segoe UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="1">
+    <comment ref="R19" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Perda Esperada do RIsco:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-A Perda Esperada do Risco identifica a prioridade de tratamento dos riscos.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Perda Esperada Alta: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos de alta prioridade, para os quais devem ser elaborados planos de mitigação ao risco.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Perda Esperada Média: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos de prioridade moderada, para os quais devem ser elaborados, pelo menos, planos de contingência ao risco.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Perda Esperada Baixa: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Riscos de baixa prioridade, para os quais não são necessários planos de resposta ao risco.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G48" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Situação do Risco:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 
-Situação atual do risco no projeto:
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Ativo: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco identificado e monitorado, porém sem nenhuma resposta sendo implementada.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Em mitigação: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco para o qual está sendo executada uma estratégia de mitigação.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Ocorrido: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Risco ocorrido no projeto para o qual está sendo aplicada a estratégia de resposta adequada, normalmente a execução de um plano de contingência.
-    </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">- Inativo: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Risco eliminado, naturalmente no decorrer do tempo, por uma ação de resposta ao risco ou por este já ter ocorrido e a ser impossível nova ocorrência.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H48" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Gatilhos do Risco: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Métricas e limites relacionados a um risco que indicam a ocorrência ou a iminência de ocorrência do risco, 
-por exemplo: taxa de defeitos nos resultados de testes e revisões técnicas, indicador de retrabalho do projeto, 
-indicador de entregas de produtos, indicador de prazo e custo de projeto, etc.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J49" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Plano de Mitigação do Risco: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Planejamento de ações que busquem reduzir a probabilidade e/ou o impacto da ocorrência do risco
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K49" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Plano de Contingência do Risco: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Estratégia de reação aos efeitos do risco, caso este venha a ocorrer.
+            <sz val="9"/>
+            <rFont val="Arial"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">IMPORTANTE:  Como criar planilha de monitoramento e controle do Sprint
+1. Crie uma nova planilha, altere o nome para SprintX (X=numero do sprint (Ex.: Sprint2) e copie o conteúdo para a nova planilha
+2. Selecione o gráfico, clique com o botão direito e selecione a opção Selecionar Dados
+3. Crie a fórmula antes e dê o nome Restante+número do sprint (Ex.: Restante2, para o Sprint2  e altere o nome da planilha na fórmula para Sprint2)
+4. Edite a série Restante e em "Valores da série" substitua pelo nome da fórmula "Restante2"
+Pronto!
 </t>
         </r>
       </text>
@@ -778,138 +848,6 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={FBCB0187-CFE6-42D9-889B-D8BABA294980}</author>
-    <author>Murakami Edson</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Essas tarefas devem vir do backlog do produto, conforme a priorização.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Horas Estimadas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-A estimativa pode vir do Backlog do Produto ou ser refeita durante o planejamento do Sprint. 
-Porém, a estimativa inicial no Backlog do Produto não pode ser alterada. Caso contrário, não será possível calcular o percentual de erro da estimativa que deveria ser utilizado nos projetos futuros.
-Criar um histórico do percentual de erro da estimativa é muito importante para a maturidade do time e para aumentar a precisão das estimativas.
-(*) Desse modo, o lançamento das horas efetivamente gastas são muito importante para poder comparar estimado com realizado.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Data de início do sprint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">O esforço total do Sprint não pode ultrapassar a capacidade do time.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N19" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>I</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">MPORTANTE:  Como criar planilha de monitoramento e controle do Sprint
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Segoe UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1. Crie uma nova planilha, altere o nome para SprintX (X=numero do sprint (Ex.: Sprint2) e copie o conteúdo para a nova planilha
-2. Selecione o gráfico, clique com o botão direito e selecione a opção Selecionar Dados
-3. Crie a fórmula antes e dê o nome Restante+número do sprint (Ex.: Restante2, para o Sprint2  e altere o nome da planilha na fórmula para Sprint2)
-4. Edite a série Restante e em "Valores da série" substitua pelo nome da fórmula "Restante2"
-Pronto!</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murakami Edson</author>
@@ -1746,7 +1684,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murakami Edson</author>
@@ -1769,12 +1707,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="273">
   <si>
     <t>Equipe</t>
   </si>
   <si>
-    <t>&lt;Sigla do Projeto&gt; - &lt;Nome do Projeto&gt;</t>
+    <t>COMCER - Comanda Certa</t>
   </si>
   <si>
     <t>Papel</t>
@@ -1883,16 +1821,19 @@
     <t>UC02</t>
   </si>
   <si>
+    <t>Treinamento Spinoff</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
     <t>Definir escopo</t>
   </si>
   <si>
-    <t>UC03</t>
-  </si>
-  <si>
     <t>Planejar o projeto</t>
   </si>
   <si>
-    <t>Aplicar Checlist da fase</t>
+    <t>Aplicar Checklist da fase</t>
   </si>
   <si>
     <t>Revisar planejamento</t>
@@ -1925,9 +1866,6 @@
     <t>Implementar e testar a arquitetura</t>
   </si>
   <si>
-    <t>Aplicar Checklist da fase</t>
-  </si>
-  <si>
     <t>Revisar Planejamento</t>
   </si>
   <si>
@@ -2009,7 +1947,7 @@
     <t>Planejamento Estimado</t>
   </si>
   <si>
-    <t>Esforço total estimado (Planilha Estimativa)</t>
+    <t>Esforço total estimado (Planilha Backlog)</t>
   </si>
   <si>
     <t>horas</t>
@@ -2021,7 +1959,7 @@
     <t>% de erro de estimativa</t>
   </si>
   <si>
-    <t>Qde desenvolvedores</t>
+    <t>Qtde desenvolvedores</t>
   </si>
   <si>
     <t>Jornada de trabalho semanal por desenvolvedor</t>
@@ -2120,19 +2058,10 @@
     <t>Revisão (versão)</t>
   </si>
   <si>
-    <t>Visão, modelo de caso de uso e plano</t>
+    <t>Pré-projeto, Visão, plano, escopo do projeto, backlog</t>
   </si>
   <si>
     <t>Entregue</t>
-  </si>
-  <si>
-    <t>Revision 4509</t>
-  </si>
-  <si>
-    <t>UC01, UC02</t>
-  </si>
-  <si>
-    <t>Planejado</t>
   </si>
   <si>
     <t>Lista de Riscos</t>
@@ -2354,12 +2283,6 @@
     <t>Resolvido</t>
   </si>
   <si>
-    <t>RM#001 - Inclusão Relatório de Clubes por Estado</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
     <t>Backlog Sprint</t>
   </si>
   <si>
@@ -2393,7 +2316,19 @@
     <t>Dia 10</t>
   </si>
   <si>
-    <t>Restante</t>
+    <t>Dia 11</t>
+  </si>
+  <si>
+    <t>Dia 12</t>
+  </si>
+  <si>
+    <t>Dia 13</t>
+  </si>
+  <si>
+    <t>Dia 14</t>
+  </si>
+  <si>
+    <t>Restante1</t>
   </si>
   <si>
     <t>Estimado</t>
@@ -2411,7 +2346,7 @@
     <t>Nome da Planilha</t>
   </si>
   <si>
-    <t>Template - Planejamento e Controle do Projeto.xltx'!Restante</t>
+    <t>GP - Checklist Verificacao de Projeto v1.0'!Restante1</t>
   </si>
   <si>
     <t>APF (Método de estimativa de tamanho de sistema)</t>
@@ -2712,14 +2647,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2846,6 +2781,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2868,12 +2809,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -2960,20 +2895,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2989,7 +2910,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3006,13 +2942,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,23 +2971,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3082,7 +2995,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3095,9 +3030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Segoe UI"/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3109,6 +3043,11 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -3128,8 +3067,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3238,12 +3178,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3256,19 +3190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3280,7 +3220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3298,19 +3244,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,19 +3274,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,13 +3304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3370,25 +3328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3703,15 +3643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3723,6 +3654,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3757,6 +3706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3768,24 +3726,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3807,20 +3747,20 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3830,13 +3770,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3845,104 +3788,101 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4123,11 +4063,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -4144,11 +4084,11 @@
     <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4160,50 +4100,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="58" fontId="20" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4215,22 +4155,22 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4239,28 +4179,28 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4287,19 +4227,19 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4308,10 +4248,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4335,53 +4275,53 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="20" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="20" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="20" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="20" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4465,13 +4405,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4507,7 +4440,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4583,13 +4516,13 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color indexed="54"/>
+        <b val="1"/>
+        <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <color indexed="54"/>
       </font>
     </dxf>
     <dxf>
@@ -4707,7 +4640,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Restante</c:v>
+                  <c:v>Restante1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4735,14 +4668,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sprint1!$B$1:$L$1</c:f>
+              <c:f>Sprint1!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="dd/mmm">
-                  <c:v>30/jan</c:v>
+                  <c:v>19/set</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4771,6 +4704,18 @@
                 <c:pt idx="10">
                   <c:v>Dia 10</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4779,8 +4724,50 @@
               <c:f>[0]!Restante</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4825,14 +4812,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sprint1!$B$1:$L$1</c:f>
+              <c:f>Sprint1!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="dd/mmm">
-                  <c:v>30/jan</c:v>
+                  <c:v>19/set</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4861,47 +4848,71 @@
                 <c:pt idx="10">
                   <c:v>Dia 10</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$B$13:$L$13</c:f>
+              <c:f>Sprint1!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>43.6428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>40.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>36.9285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>33.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>30.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>26.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>20.1428571428572</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>16.7857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>13.4285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="0">
+                  <c:v>10.0714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="0">
+                  <c:v>6.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="0">
+                  <c:v>3.35714285714287</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="0">
+                  <c:v>7.99360577730113e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5709,13 +5720,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -5726,7 +5737,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7686675" y="19050"/>
+        <a:off x="9553575" y="19050"/>
         <a:ext cx="5057775" cy="3648075"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6723,8 +6734,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -6735,127 +6746,127 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
     </row>
     <row r="2" ht="25.5" spans="1:3">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="195" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="197" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="196"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="197" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="197" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="197" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="198"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="198"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="198"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="198"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="198"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="198"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6863,24 +6874,23 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId3" display="lucasdemoraesc@gmail.com"/>
-    <hyperlink ref="C8" r:id="rId4" display="danyellias@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId5" display="leonardopereira10@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId3" display="lucasdemoraesc@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="lucasdemoraesc@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId2" display="danyellias@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId3" display="leonardopereira10@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="lucasdemoraesc@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D13" sqref="D13:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6983,7 +6993,7 @@
       <c r="J4" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="193" t="s">
+      <c r="K4" s="191" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="179" t="s">
@@ -6992,392 +7002,409 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="181">
+        <f>0+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="184">
+      <c r="D5" s="69">
         <v>10</v>
       </c>
-      <c r="F5" s="185">
+      <c r="F5" s="183">
         <v>1</v>
       </c>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="186">
+      <c r="H5" s="184">
         <v>5</v>
       </c>
-      <c r="I5" s="186">
+      <c r="I5" s="184">
         <v>0</v>
       </c>
-      <c r="J5" s="186">
+      <c r="J5" s="184">
         <v>0</v>
       </c>
-      <c r="K5" s="186">
+      <c r="K5" s="184">
         <v>3</v>
       </c>
-      <c r="L5" s="194">
+      <c r="L5" s="192">
         <f>SUM(H5:K5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="181">
+        <f t="shared" ref="A6:A11" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="184">
-        <v>10</v>
-      </c>
-      <c r="F6" s="185">
+      <c r="D6" s="69">
+        <v>5</v>
+      </c>
+      <c r="F6" s="183">
         <v>2</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="186">
+      <c r="H6" s="184">
         <v>5</v>
       </c>
-      <c r="I6" s="186">
+      <c r="I6" s="184">
         <v>0</v>
       </c>
-      <c r="J6" s="186">
+      <c r="J6" s="184">
         <v>5</v>
       </c>
-      <c r="K6" s="186">
+      <c r="K6" s="184">
         <v>5</v>
       </c>
-      <c r="L6" s="194">
-        <f t="shared" ref="L6:L19" si="0">SUM(H6:K6)</f>
+      <c r="L6" s="192">
+        <f>SUM(H6:K6)</f>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="181">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="184">
-        <v>15</v>
-      </c>
-      <c r="F7" s="185">
+      <c r="D7" s="69">
+        <v>4</v>
+      </c>
+      <c r="F7" s="183">
         <v>3</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="186">
+      <c r="H7" s="184">
         <v>3</v>
       </c>
-      <c r="I7" s="186">
+      <c r="I7" s="184">
         <v>0</v>
       </c>
-      <c r="J7" s="186">
+      <c r="J7" s="184">
         <v>0</v>
       </c>
-      <c r="K7" s="186">
+      <c r="K7" s="184">
         <v>3</v>
       </c>
-      <c r="L7" s="194">
+      <c r="L7" s="192">
+        <f t="shared" ref="L7:L19" si="1">SUM(H7:K7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="181">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="69">
+        <v>20</v>
+      </c>
+      <c r="F8" s="183"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="192">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="181">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="69">
+        <v>4</v>
+      </c>
+      <c r="F9" s="185"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="192">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="181">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="181">
-        <v>4</v>
-      </c>
-      <c r="B8" s="182" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="183" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="184">
-        <v>15</v>
-      </c>
-      <c r="F8" s="185"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="194">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="181">
-        <v>5</v>
-      </c>
-      <c r="B9" s="182" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="184">
-        <v>10</v>
-      </c>
-      <c r="F9" s="187"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="194">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="181">
-        <v>6</v>
-      </c>
       <c r="B10" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="184">
+      <c r="D10" s="69">
         <v>2</v>
       </c>
-      <c r="F10" s="185"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="194">
+      <c r="F10" s="183"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="192">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="181">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="69">
+        <v>2</v>
+      </c>
+      <c r="F11" s="185"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="176" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179">
-        <f>SUM(D5:D10)</f>
-        <v>62</v>
-      </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="194">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="181">
-        <v>7</v>
-      </c>
-      <c r="B12" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="183" t="s">
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="194">
-        <f t="shared" si="0"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179">
+        <f>SUM(D5:D11)</f>
+        <v>47</v>
+      </c>
+      <c r="F12" s="185"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="181">
+        <f>A11+1</f>
         <v>8</v>
       </c>
       <c r="B13" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="184"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="194">
-        <f t="shared" si="0"/>
+      <c r="D13" s="69"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="181">
+        <f>A13+1</f>
         <v>9</v>
       </c>
       <c r="B14" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="194">
-        <f t="shared" si="0"/>
+      <c r="D14" s="69"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="181">
+        <f t="shared" ref="A15:A22" si="2">A14+1</f>
         <v>10</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="189" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="194">
-        <f t="shared" si="0"/>
+      <c r="D15" s="69"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="181">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="184"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="194">
-        <f t="shared" si="0"/>
+      <c r="D16" s="69"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="181">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B17" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="184"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="194">
-        <f t="shared" si="0"/>
+      <c r="D17" s="69"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="181">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B18" s="182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="184"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="194">
-        <f t="shared" si="0"/>
+      <c r="D18" s="69"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="181">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B19" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="184"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="194">
-        <f t="shared" si="0"/>
+      <c r="D19" s="69"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="181">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B20" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="184"/>
+      <c r="D20" s="69"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="165"/>
@@ -7388,15 +7415,16 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="181">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B21" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="188" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="184"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="69"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" s="165"/>
@@ -7405,16 +7433,18 @@
       <c r="K21" s="165"/>
       <c r="L21" s="165"/>
     </row>
-    <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179">
-        <f>SUM(D12:D21)</f>
-        <v>0</v>
-      </c>
+    <row r="22" spans="1:12">
+      <c r="A22" s="181">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="182" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="69"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" s="165"/>
@@ -7423,17 +7453,16 @@
       <c r="K22" s="165"/>
       <c r="L22" s="165"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="181">
-        <v>17</v>
-      </c>
-      <c r="B23" s="182" t="s">
+    <row r="23" customHeight="1" spans="1:12">
+      <c r="A23" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="184"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179">
+        <f>SUM(D13:D22)</f>
+        <v>0</v>
+      </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" s="165"/>
@@ -7444,376 +7473,428 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="181">
+        <f>A22+1</f>
         <v>18</v>
       </c>
       <c r="B24" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="189" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="184"/>
+      <c r="C24" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="69"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="181">
+        <f>A24+1</f>
         <v>19</v>
       </c>
       <c r="B25" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="190" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="184"/>
+      <c r="C25" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="181">
+        <f t="shared" ref="A26:A46" si="3">A25+1</f>
         <v>20</v>
       </c>
       <c r="B26" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="190" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="184"/>
+      <c r="C26" s="188" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="181">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B27" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="190" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="184"/>
+      <c r="C27" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="69"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="181">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B28" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="190" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="184"/>
+      <c r="C28" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="69"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="181">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B29" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="189" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="184"/>
+      <c r="C29" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="181">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B30" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="190" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="184"/>
+      <c r="C30" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="181">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B31" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="190" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="184"/>
+      <c r="C31" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="69"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="181">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B32" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="190" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="184"/>
+      <c r="C32" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="181">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="190" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="184"/>
+      <c r="C33" s="188" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="69"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="181">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B34" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="189" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="184"/>
+      <c r="C34" s="188" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="181">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B35" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="190" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="184"/>
+      <c r="C35" s="187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="181">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B36" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="190" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="184"/>
+      <c r="C36" s="188" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="181">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B37" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="190" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="184"/>
+      <c r="C37" s="188" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="181">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B38" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="184"/>
+      <c r="C38" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="181">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B39" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="189" t="s">
+      <c r="C39" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="69"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="181">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="184"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="181"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="184"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="181"/>
+      <c r="A41" s="181">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
       <c r="B41" s="182"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="184"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="181"/>
+      <c r="A42" s="181">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
       <c r="B42" s="182"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="184"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="181"/>
+      <c r="A43" s="181">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
       <c r="B43" s="182"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="184"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="181">
-        <v>34</v>
-      </c>
-      <c r="B44" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="188" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="184"/>
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="182"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="69"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="181">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="B45" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="188" t="s">
+      <c r="C45" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="69"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="181">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="184"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="176" t="s">
+      <c r="D46" s="69"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="177"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="179">
-        <f>SUM(D23:D45)</f>
+      <c r="B47" s="177"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="179">
+        <f>SUM(D24:D46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="181">
-        <v>36</v>
-      </c>
-      <c r="B47" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="184"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="181">
-        <v>37</v>
+        <f>A46+1</f>
+        <v>41</v>
       </c>
       <c r="B48" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="188" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="184"/>
+      <c r="C48" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="181">
-        <v>38</v>
+        <f>A48+1</f>
+        <v>42</v>
       </c>
       <c r="B49" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="188" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="184"/>
+      <c r="C49" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="69"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="181">
-        <v>39</v>
+        <f t="shared" ref="A50:A56" si="4">A49+1</f>
+        <v>43</v>
       </c>
       <c r="B50" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="188" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="184"/>
+      <c r="C50" s="186" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="69"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="181">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="B51" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="184"/>
+      <c r="C51" s="186" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="69"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="181">
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="B52" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="184"/>
+      <c r="C52" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="69"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="181">
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="B53" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="184"/>
+      <c r="C53" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="69"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="181">
-        <v>43</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="B54" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="184"/>
+      <c r="C54" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="69"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="181">
-        <v>44</v>
-      </c>
-      <c r="B55" s="191" t="s">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B55" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="188" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="184"/>
+      <c r="C55" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="69"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="176"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="179">
-        <f>SUM(D47:D55)</f>
+      <c r="A56" s="181">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="189" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="69"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="176"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="179">
+        <f>SUM(D48:D56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" spans="4:4">
-      <c r="D57" s="192">
-        <f>SUM(D11,D22,D46,D56)</f>
-        <v>62</v>
+    <row r="58" ht="15.75" spans="4:4">
+      <c r="D58" s="190">
+        <f>SUM(D12,D23,D47,D57)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7824,10 +7905,10 @@
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7843,7 +7924,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -7873,8 +7954,8 @@
         <v>79</v>
       </c>
       <c r="B4" s="159">
-        <f>'Backlog Produto'!$D$57</f>
-        <v>62</v>
+        <f>'Backlog Produto'!$D$58</f>
+        <v>47</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>80</v>
@@ -7896,7 +7977,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="19"/>
     </row>
@@ -7905,7 +7986,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="17">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>80</v>
@@ -7917,7 +7998,7 @@
       </c>
       <c r="B8" s="160">
         <f>B6*B7*2</f>
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>80</v>
@@ -7929,7 +8010,7 @@
       </c>
       <c r="B9" s="161">
         <f>B11/2</f>
-        <v>3.1</v>
+        <v>0.279761904761905</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>87</v>
@@ -7941,7 +8022,7 @@
       </c>
       <c r="B10" s="162">
         <f>B4+(B4*B5)</f>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>80</v>
@@ -7953,7 +8034,7 @@
       </c>
       <c r="B11" s="160">
         <f>B10/B8*2</f>
-        <v>6.2</v>
+        <v>0.55952380952381</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>90</v>
@@ -7965,7 +8046,7 @@
       </c>
       <c r="B12" s="161">
         <f>B11/4</f>
-        <v>1.55</v>
+        <v>0.139880952380952</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>92</v>
@@ -7993,7 +8074,7 @@
       </c>
       <c r="B16" s="32">
         <f>B10*B15</f>
-        <v>1240</v>
+        <v>940</v>
       </c>
       <c r="C16" s="12"/>
     </row>
@@ -8022,7 +8103,7 @@
       </c>
       <c r="B19" s="164">
         <f>B16+B18</f>
-        <v>1240</v>
+        <v>940</v>
       </c>
       <c r="C19" s="12"/>
     </row>
@@ -8041,7 +8122,7 @@
       </c>
       <c r="B21" s="36">
         <f>B19*B20</f>
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12"/>
     </row>
@@ -8051,7 +8132,7 @@
       </c>
       <c r="B22" s="164">
         <f>B19+B21</f>
-        <v>1488</v>
+        <v>1128</v>
       </c>
       <c r="C22" s="12"/>
     </row>
@@ -8073,8 +8154,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8109,17 +8190,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="137"/>
-      <c r="C2" s="138" t="e">
-        <f>Planejamento!#REF!</f>
-        <v>#REF!</v>
+      <c r="C2" s="138">
+        <v>2</v>
       </c>
       <c r="D2" s="139" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="139"/>
-      <c r="F2" s="140" t="e">
-        <f>Planejamento!#REF!</f>
-        <v>#REF!</v>
+      <c r="F2" s="140">
+        <f>Planejamento!B9</f>
+        <v>0.279761904761905</v>
       </c>
       <c r="G2" s="136" t="s">
         <v>105</v>
@@ -8129,7 +8209,7 @@
       <c r="J2" s="137"/>
       <c r="K2" s="138">
         <f>Planejamento!$B$10</f>
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:11">
@@ -8192,54 +8272,44 @@
         <v>116</v>
       </c>
       <c r="C5" s="90">
-        <v>43132</v>
+        <v>44458</v>
       </c>
       <c r="D5" s="90">
-        <v>43159</v>
+        <v>44472</v>
       </c>
       <c r="E5" s="145">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F5" s="146" t="s">
         <v>117</v>
       </c>
       <c r="G5" s="90">
-        <v>43132</v>
+        <v>44458</v>
       </c>
       <c r="H5" s="90">
-        <v>43160</v>
+        <v>44472</v>
       </c>
       <c r="I5" s="145">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J5" s="154">
         <f>E5-I5</f>
-        <v>-4</v>
-      </c>
-      <c r="K5" s="155" t="s">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" s="155"/>
     </row>
     <row r="6" ht="12.75" spans="1:11">
       <c r="A6" s="88">
         <v>2</v>
       </c>
-      <c r="B6" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="90">
-        <v>43160</v>
-      </c>
-      <c r="D6" s="90">
-        <v>43189</v>
-      </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="146" t="s">
-        <v>120</v>
-      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="90"/>
       <c r="H6" s="90"/>
-      <c r="I6" s="147"/>
+      <c r="I6" s="145"/>
       <c r="J6" s="156"/>
       <c r="K6" s="155"/>
     </row>
@@ -8247,19 +8317,11 @@
       <c r="A7" s="88">
         <v>3</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="90">
-        <v>43191</v>
-      </c>
-      <c r="D7" s="90">
-        <v>43220</v>
-      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="147"/>
-      <c r="F7" s="146" t="s">
-        <v>120</v>
-      </c>
+      <c r="F7" s="146"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90"/>
       <c r="I7" s="147"/>
@@ -8378,18 +8440,18 @@
       <c r="D15" s="93"/>
       <c r="E15" s="148">
         <f>SUM(E5:E14)</f>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="149"/>
       <c r="H15" s="149"/>
       <c r="I15" s="148">
         <f>SUM(I5:I14)</f>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J15" s="157">
         <f>SUM(J5:J14)</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="40"/>
     </row>
@@ -8406,31 +8468,47 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <conditionalFormatting sqref="G5:H5">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$F5="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$F6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>OR($F6="Planned",$F6="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$F5="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H14">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
+  <conditionalFormatting sqref="G7:H14">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>OR($F7="Planned",$F7="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$F5="Ongoing"</formula>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$F7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8449,7 +8527,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -9290,7 +9368,7 @@
   <sheetData>
     <row r="1" s="41" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A1" s="99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -9306,142 +9384,142 @@
     <row r="2" ht="12" hidden="1"/>
     <row r="3" hidden="1" spans="4:4">
       <c r="D3" s="101" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="22.5" hidden="1" spans="4:4">
       <c r="D4" s="102" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="22.5" hidden="1" spans="4:4">
       <c r="D5" s="102" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="4:4">
       <c r="D6" s="102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="22.5" hidden="1" spans="4:4">
       <c r="D7" s="102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="4:4">
       <c r="D8" s="102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="4:4">
       <c r="D9" s="102" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="22.5" hidden="1" spans="4:4">
       <c r="D10" s="102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="22.5" hidden="1" spans="4:4">
       <c r="D11" s="102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="4:4">
       <c r="D12" s="102" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="22.5" hidden="1" spans="4:4">
       <c r="D13" s="102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" ht="22.5" hidden="1" spans="4:4">
       <c r="D14" s="103" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="4:4">
       <c r="D15" s="102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="4:4">
       <c r="D16" s="102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="4:4">
       <c r="D17" s="102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" hidden="1" spans="4:4">
       <c r="D18" s="103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" hidden="1" spans="4:4">
       <c r="D19" s="102" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="4:4">
       <c r="D20" s="102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="4:4">
       <c r="D21" s="102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="4:4">
       <c r="D22" s="103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="4:4">
       <c r="D23" s="102" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="4:4">
       <c r="D24" s="102" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="4:4">
       <c r="D25" s="102" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="4:4">
       <c r="D26" s="102" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="4:4">
       <c r="D27" s="103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="4:4">
       <c r="D28" s="102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="4:4">
       <c r="D29" s="102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="4:4">
       <c r="D30" s="102" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" s="95" customFormat="1" hidden="1" spans="1:11">
@@ -9449,7 +9527,7 @@
       <c r="B31" s="104"/>
       <c r="C31" s="104"/>
       <c r="D31" s="105" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="104"/>
@@ -9464,7 +9542,7 @@
       <c r="B32" s="106"/>
       <c r="C32" s="106"/>
       <c r="D32" s="107" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" s="106"/>
       <c r="F32" s="106"/>
@@ -9479,7 +9557,7 @@
       <c r="B33" s="106"/>
       <c r="C33" s="106"/>
       <c r="D33" s="108" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" s="109"/>
       <c r="F33" s="106"/>
@@ -9497,7 +9575,7 @@
         <v>4290</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
@@ -9514,7 +9592,7 @@
         <v>5082</v>
       </c>
       <c r="E35" s="111" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="106"/>
@@ -9531,7 +9609,7 @@
         <v>4356</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="106"/>
@@ -9548,7 +9626,7 @@
         <v>5929</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F37" s="106"/>
       <c r="G37" s="106"/>
@@ -9565,7 +9643,7 @@
         <v>5005</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
@@ -9582,7 +9660,7 @@
         <v>4225</v>
       </c>
       <c r="E39" s="113" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
@@ -9594,7 +9672,7 @@
     <row r="40" ht="8.25" customHeight="1"/>
     <row r="41" s="41" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
       <c r="A41" s="114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B41" s="114"/>
       <c r="C41" s="114"/>
@@ -9609,7 +9687,7 @@
     </row>
     <row r="42" s="41" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
       <c r="A42" s="115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
@@ -9624,7 +9702,7 @@
     </row>
     <row r="43" s="41" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A43" s="116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
@@ -9639,7 +9717,7 @@
     </row>
     <row r="44" s="41" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
       <c r="A44" s="117" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B44" s="117"/>
       <c r="C44" s="117"/>
@@ -9655,7 +9733,7 @@
     <row r="45" ht="9" customHeight="1"/>
     <row r="46" ht="15.75" spans="1:11">
       <c r="A46" s="118" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="119"/>
@@ -9670,11 +9748,11 @@
     </row>
     <row r="47" s="96" customFormat="1" ht="12.75" customHeight="1" spans="1:11">
       <c r="A47" s="120" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B47" s="121"/>
       <c r="C47" s="122" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" s="122"/>
       <c r="E47" s="122"/>
@@ -9688,25 +9766,25 @@
     <row r="48" s="97" customFormat="1" customHeight="1" spans="1:11">
       <c r="A48" s="123"/>
       <c r="B48" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="123" t="s">
+      <c r="G48" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="124" t="s">
         <v>167</v>
-      </c>
-      <c r="D48" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="124" t="s">
-        <v>170</v>
       </c>
       <c r="I48" s="131"/>
       <c r="J48" s="131"/>
@@ -9721,14 +9799,14 @@
       <c r="F49" s="123"/>
       <c r="G49" s="123"/>
       <c r="H49" s="125" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I49" s="132"/>
       <c r="J49" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K49" s="123" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" s="97" customFormat="1" ht="33.75" spans="1:11">
@@ -9736,29 +9814,29 @@
         <v>1</v>
       </c>
       <c r="B50" s="127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C50" s="128">
         <v>43891</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F50" s="129" t="str">
         <f>IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
       <c r="G50" s="91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H50" s="130"/>
       <c r="I50" s="133"/>
       <c r="J50" s="134"/>
       <c r="K50" s="134" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" s="97" customFormat="1" customHeight="1" spans="1:11">
@@ -9766,7 +9844,7 @@
       <c r="B51" s="127"/>
       <c r="C51" s="128"/>
       <c r="D51" s="91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E51" s="91"/>
       <c r="F51" s="129" t="e">
@@ -9984,7 +10062,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
@@ -9998,7 +10076,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -10017,28 +10095,22 @@
         <v>26</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="1:4">
       <c r="A4" s="88">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="90">
-        <v>43132</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>181</v>
-      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5" ht="12.75" spans="1:4">
       <c r="A5" s="88">
@@ -10128,10 +10200,10 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:C13">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>OR(#REF!="Planned",#REF!="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10148,10 +10220,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10160,134 +10232,214 @@
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="5" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.42857142857143" customWidth="1"/>
-    <col min="14" max="14" width="16.7142857142857" customWidth="1"/>
+    <col min="5" max="16" width="7" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42857142857143" customWidth="1"/>
+    <col min="18" max="18" width="16.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1" spans="1:12">
+    <row r="1" ht="37.5" customHeight="1" spans="1:16">
       <c r="A1" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44458</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="H1" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="66">
-        <v>43130</v>
-      </c>
-      <c r="D1" s="67" t="s">
+      <c r="I1" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="J1" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="K1" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="L1" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="M1" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="N1" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="O1" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="P1" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="69">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17">
+        <v>4</v>
+      </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="69">
+        <v>5</v>
+      </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2</v>
+      </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="69">
+        <v>4</v>
+      </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="69">
+        <v>20</v>
+      </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" s="17">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>2</v>
+      </c>
+      <c r="K5" s="17">
+        <v>2</v>
+      </c>
+      <c r="L5" s="17">
+        <v>3</v>
+      </c>
+      <c r="M5" s="17">
+        <v>2</v>
+      </c>
+      <c r="N5" s="17">
+        <v>5</v>
+      </c>
+      <c r="O5" s="17">
+        <v>6</v>
+      </c>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="69">
+        <v>4</v>
+      </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="69">
+        <v>2</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -10298,10 +10450,20 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="69"/>
-      <c r="B8" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="69">
+        <v>2</v>
+      </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -10312,8 +10474,16 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="70"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -10326,8 +10496,12 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="70"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -10340,8 +10514,12 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="70"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -10354,222 +10532,290 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="72">
         <f>SUM(B2:B11)</f>
+        <v>47</v>
+      </c>
+      <c r="C12" s="72">
+        <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11),"")</f>
+        <v>45</v>
+      </c>
+      <c r="D12" s="72">
+        <f t="shared" ref="D12:P12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11),"")</f>
+        <v>43</v>
+      </c>
+      <c r="E12" s="72">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="72">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="72">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H12" s="72">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I12" s="72">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J12" s="72">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K12" s="72">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L12" s="72">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M12" s="72">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N12" s="72">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="72">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P12" s="72">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="72" t="str">
-        <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="72" t="str">
-        <f t="shared" ref="D12:L12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11),"")</f>
-        <v/>
-      </c>
-      <c r="E12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L12" s="72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="Q12" s="80"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="74">
         <f>B12</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C13" s="75">
-        <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>0</v>
+        <f>B13-($B$13/COUNTA($C$1:$P$1))</f>
+        <v>43.6428571428571</v>
       </c>
       <c r="D13" s="75">
-        <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>0</v>
+        <f t="shared" ref="D13:P13" si="1">C13-($B$13/COUNTA($C$1:$P$1))</f>
+        <v>40.2857142857143</v>
       </c>
       <c r="E13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.9285714285714</v>
       </c>
       <c r="F13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.5714285714286</v>
       </c>
       <c r="G13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.2142857142857</v>
       </c>
       <c r="H13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.8571428571429</v>
       </c>
       <c r="I13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.1428571428572</v>
       </c>
       <c r="K13" s="75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.7857142857143</v>
       </c>
       <c r="L13" s="75">
         <f t="shared" si="1"/>
+        <v>13.4285714285714</v>
+      </c>
+      <c r="M13" s="75">
+        <f t="shared" si="1"/>
+        <v>10.0714285714286</v>
+      </c>
+      <c r="N13" s="75">
+        <f t="shared" si="1"/>
+        <v>6.71428571428572</v>
+      </c>
+      <c r="O13" s="75">
+        <f t="shared" si="1"/>
+        <v>3.35714285714287</v>
+      </c>
+      <c r="P13" s="75">
+        <f t="shared" si="1"/>
+        <v>7.99360577730113e-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>47</v>
+      </c>
+      <c r="C14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>45</v>
+      </c>
+      <c r="D14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>43</v>
+      </c>
+      <c r="E14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>41</v>
+      </c>
+      <c r="F14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>36</v>
+      </c>
+      <c r="G14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>32</v>
+      </c>
+      <c r="H14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>27</v>
+      </c>
+      <c r="I14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>24</v>
+      </c>
+      <c r="J14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>22</v>
+      </c>
+      <c r="K14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>20</v>
+      </c>
+      <c r="L14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>17</v>
+      </c>
+      <c r="M14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>15</v>
+      </c>
+      <c r="N14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>10</v>
+      </c>
+      <c r="O14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
+        <v>3</v>
+      </c>
+      <c r="P14" s="77">
+        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$P$12))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="76" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="77">
-        <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="78" t="e">
+      <c r="B15" s="78">
         <f ca="1">B14/$B$13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="78" t="e">
+        <v>1</v>
+      </c>
+      <c r="C15" s="78">
         <f ca="1">100%-(C14/$B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="78" t="e">
-        <f ca="1" t="shared" ref="D15:L15" si="2">100%-(D14/$B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="78" t="e">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="D15" s="78">
+        <f ca="1" t="shared" ref="D15:P15" si="2">100%-(D14/$B$13)</f>
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="E15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="78" t="e">
+        <v>0.127659574468085</v>
+      </c>
+      <c r="F15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="78" t="e">
+        <v>0.234042553191489</v>
+      </c>
+      <c r="G15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="78" t="e">
+        <v>0.319148936170213</v>
+      </c>
+      <c r="H15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="78" t="e">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="I15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="78" t="e">
+        <v>0.48936170212766</v>
+      </c>
+      <c r="J15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="78" t="e">
+        <v>0.531914893617021</v>
+      </c>
+      <c r="K15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="78" t="e">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L15" s="78">
         <f ca="1" t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.638297872340426</v>
+      </c>
+      <c r="M15" s="78">
+        <f ca="1" t="shared" si="2"/>
+        <v>0.680851063829787</v>
+      </c>
+      <c r="N15" s="78">
+        <f ca="1" t="shared" si="2"/>
+        <v>0.787234042553192</v>
+      </c>
+      <c r="O15" s="78">
+        <f ca="1" t="shared" si="2"/>
+        <v>0.936170212765957</v>
+      </c>
+      <c r="P15" s="78">
+        <f ca="1" t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
       <c r="A16" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="79">
         <f>Planejamento!B8</f>
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="14:15">
-      <c r="N19" s="81" t="s">
+    <row r="19" spans="18:19">
+      <c r="R19" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="198" t="s">
         <v>198</v>
-      </c>
-      <c r="O19" s="200" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10587,7 +10833,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10610,7 +10856,7 @@
   <sheetData>
     <row r="1" s="41" customFormat="1" ht="21" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10628,7 +10874,7 @@
     </row>
     <row r="2" s="42" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
       <c r="A2" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -10646,7 +10892,7 @@
     </row>
     <row r="3" s="42" customFormat="1" customHeight="1" spans="1:14">
       <c r="A3" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -10664,7 +10910,7 @@
     </row>
     <row r="4" s="42" customFormat="1" customHeight="1" spans="1:14">
       <c r="A4" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -10682,7 +10928,7 @@
     </row>
     <row r="5" s="42" customFormat="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A5" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -10701,75 +10947,75 @@
     <row r="6" s="43" customFormat="1" ht="20.25" customHeight="1"/>
     <row r="7" s="43" customFormat="1" ht="12" spans="1:14">
       <c r="A7" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="49"/>
       <c r="D7" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="49"/>
       <c r="G7" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="M7" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N7" s="49"/>
     </row>
     <row r="8" s="43" customFormat="1" ht="17.25" customHeight="1" spans="1:14">
       <c r="A8" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="E8" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="H8" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="I8" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="52" t="s">
+      <c r="K8" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="M8" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="N8" s="52" t="s">
         <v>215</v>
-      </c>
-      <c r="N8" s="52" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" s="43" customFormat="1" ht="12" spans="1:14">
       <c r="A9" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="E9" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>218</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>219</v>
       </c>
       <c r="H9" s="45">
         <v>2</v>
@@ -10785,21 +11031,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N9" s="56"/>
     </row>
     <row r="10" s="43" customFormat="1" ht="12" spans="1:14">
       <c r="A10" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="46"/>
       <c r="G10" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
@@ -10809,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N10" s="56"/>
     </row>
@@ -10819,14 +11065,14 @@
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="G11" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
       <c r="M11" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N11" s="56"/>
     </row>
@@ -10836,22 +11082,22 @@
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
       <c r="G12" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="I12" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="52" t="s">
+      <c r="K12" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="K12" s="52" t="s">
-        <v>214</v>
-      </c>
       <c r="M12" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N12" s="56"/>
     </row>
@@ -10861,7 +11107,7 @@
       <c r="D13" s="45"/>
       <c r="E13" s="46"/>
       <c r="G13" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" s="45">
         <v>1</v>
@@ -10873,11 +11119,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N13" s="56"/>
       <c r="W13" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" s="43" customFormat="1" ht="12" spans="1:14">
@@ -10886,7 +11132,7 @@
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
       <c r="G14" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
@@ -10896,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N14" s="56"/>
     </row>
@@ -10906,7 +11152,7 @@
       <c r="D15" s="45"/>
       <c r="E15" s="46"/>
       <c r="G15" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H15" s="45">
         <v>1</v>
@@ -10918,7 +11164,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N15" s="56"/>
     </row>
@@ -10928,7 +11174,7 @@
       <c r="D16" s="45"/>
       <c r="E16" s="46"/>
       <c r="G16" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
@@ -10938,7 +11184,7 @@
         <v>14</v>
       </c>
       <c r="M16" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N16" s="56"/>
     </row>
@@ -10948,7 +11194,7 @@
       <c r="D17" s="45"/>
       <c r="E17" s="46"/>
       <c r="M17" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N17" s="56"/>
     </row>
@@ -10958,7 +11204,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="46"/>
       <c r="M18" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N18" s="56"/>
     </row>
@@ -10968,7 +11214,7 @@
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
       <c r="M19" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N19" s="56"/>
     </row>
@@ -10978,25 +11224,25 @@
       <c r="D20" s="45"/>
       <c r="E20" s="46"/>
       <c r="M20" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N20" s="56"/>
     </row>
     <row r="21" s="43" customFormat="1" ht="12" spans="13:14">
       <c r="M21" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N21" s="56"/>
     </row>
     <row r="22" s="43" customFormat="1" ht="12" spans="13:14">
       <c r="M22" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N22" s="56"/>
     </row>
     <row r="23" s="43" customFormat="1" ht="12" spans="13:14">
       <c r="M23" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N23" s="59">
         <f>SUM(N9:N22)</f>
@@ -11005,7 +11251,7 @@
     </row>
     <row r="24" spans="13:14">
       <c r="M24" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N24" s="58">
         <f>(N23*0.01)+0.65</f>
@@ -11014,7 +11260,7 @@
     </row>
     <row r="25" spans="13:14">
       <c r="M25" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N25" s="60">
         <f>K16*N24</f>
@@ -11023,7 +11269,7 @@
     </row>
     <row r="26" spans="13:14">
       <c r="M26" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N26" s="61">
         <v>19</v>
@@ -11031,7 +11277,7 @@
     </row>
     <row r="27" ht="21" spans="13:14">
       <c r="M27" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N27" s="63">
         <f>N25*N26</f>
@@ -11053,11 +11299,11 @@
     <mergeCell ref="G16:J16"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20;E9:E20">
       <formula1>"Simples,Média,Complexa"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22">
-      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -11121,7 +11367,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -11135,7 +11381,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="6">
         <f>'#Estimativa-APF#'!$N$27</f>
@@ -11145,14 +11391,14 @@
         <v>80</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
@@ -11173,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
@@ -11193,12 +11439,12 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="14">
         <f>B4+(B4*B5)</f>
@@ -11240,14 +11486,14 @@
     </row>
     <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="15">
         <f>F6*G7</f>
@@ -11284,16 +11530,16 @@
     </row>
     <row r="8" ht="15.75" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="17">
         <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="F8" s="15">
         <f>F6*G8</f>
@@ -11330,7 +11576,7 @@
     </row>
     <row r="9" ht="15.75" spans="1:14">
       <c r="A9" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="20">
         <v>2</v>
@@ -11339,7 +11585,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="15">
         <f>F6*G9</f>
@@ -11376,7 +11622,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:14">
       <c r="A10" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="22">
         <f>(B7*B8)*B9</f>
@@ -11386,7 +11632,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" s="15">
         <f>F6*G10</f>
@@ -11423,7 +11669,7 @@
     </row>
     <row r="11" ht="15.75" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="23">
         <f>B6/B10*2</f>
@@ -11433,7 +11679,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="15">
         <f>F6*G11</f>
@@ -11470,7 +11716,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="23">
         <f>B11/4</f>
@@ -11480,7 +11726,7 @@
         <v>92</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="25">
         <f>SUM(F7:F11)</f>
@@ -11518,17 +11764,17 @@
     </row>
     <row r="13" ht="15.75" spans="1:14">
       <c r="A13" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="27">
         <f>B11/B9</f>
         <v>2.16125</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="F13" s="15">
         <f>F6*G13</f>
@@ -11565,7 +11811,7 @@
     </row>
     <row r="14" ht="15.75" spans="5:14">
       <c r="E14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" s="15">
         <f>F6*G14</f>
@@ -11602,7 +11848,7 @@
     </row>
     <row r="15" spans="5:14">
       <c r="E15" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F15" s="25">
         <f>SUM(F13:F14)</f>
@@ -11645,7 +11891,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F16" s="29">
         <f>F12+F15</f>
@@ -11730,7 +11976,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:14">
       <c r="A21" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" s="35">
         <f>B18+B20</f>
@@ -11761,7 +12007,7 @@
     </row>
     <row r="24" ht="15.75" spans="1:3">
       <c r="A24" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="35">
         <f>B21+B23</f>
